--- a/assets/upload/Upload_siswa.xlsx
+++ b/assets/upload/Upload_siswa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -68,15 +68,9 @@
     <t>Jl Lodan II C Kp Japat</t>
   </si>
   <si>
-    <t>TKJ</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Teknik Komputer dan Jaringan</t>
-  </si>
-  <si>
     <t>Kode Prodi</t>
   </si>
   <si>
@@ -90,6 +84,27 @@
   </si>
   <si>
     <t>2020/2021</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Non-Aktif</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>IPS</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -97,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -146,7 +161,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +465,7 @@
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,24 +491,27 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1910003</v>
@@ -511,22 +529,25 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>5</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -549,19 +570,22 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
